--- a/docs/bson.xlsx
+++ b/docs/bson.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17580"/>
+    <workbookView windowWidth="31845" windowHeight="15195"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>byte</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>negative</t>
+  </si>
+  <si>
+    <t>bool</t>
   </si>
   <si>
     <t>length</t>
@@ -469,7 +472,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -524,6 +527,30 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -531,6 +558,19 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -659,7 +699,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -671,34 +711,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -783,7 +823,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -805,10 +845,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1347,7 +1396,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1570,11 +1619,13 @@
       <c r="F7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="G7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="11"/>
       <c r="J7" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
@@ -1589,7 +1640,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="6">
         <v>5</v>
@@ -1597,14 +1648,14 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -1614,12 +1665,12 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="6">
         <v>6</v>
@@ -1627,22 +1678,22 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
@@ -1654,32 +1705,32 @@
       <c r="R9" s="6"/>
     </row>
     <row r="10" ht="15.75" spans="1:18">
-      <c r="A10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="8">
+      <c r="A10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="10">
         <v>7</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8" t="s">
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1700,7 +1751,7 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="J6:Q6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:Q7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="E8:I8"/>

--- a/docs/bson.xlsx
+++ b/docs/bson.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31845" windowHeight="15195"/>
+    <workbookView windowWidth="30630" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,21 +27,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>byte</t>
   </si>
   <si>
-    <t>byte 0</t>
-  </si>
-  <si>
-    <t>byte 1</t>
+    <t>N</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
-    <t>key code</t>
+    <t>string</t>
+  </si>
+  <si>
+    <t>length msb</t>
+  </si>
+  <si>
+    <t>length lsb</t>
+  </si>
+  <si>
+    <t>bytes[length]</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>byte0</t>
+  </si>
+  <si>
+    <t>bytes[length-1]</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>bytes[3]</t>
+  </si>
+  <si>
+    <t>code</t>
   </si>
   <si>
     <t>code msb</t>
@@ -50,46 +92,7 @@
     <t>code lsb</t>
   </si>
   <si>
-    <t>key string</t>
-  </si>
-  <si>
-    <t>length msb</t>
-  </si>
-  <si>
-    <t>length lsb</t>
-  </si>
-  <si>
-    <t>bytes[length]</t>
-  </si>
-  <si>
-    <t>value code</t>
-  </si>
-  <si>
-    <t>value string</t>
-  </si>
-  <si>
-    <t>value int</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
-  <si>
-    <t>byte0</t>
-  </si>
-  <si>
-    <t>value float</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>bytes[3]</t>
+    <t>binary</t>
   </si>
   <si>
     <t>container</t>
@@ -99,12 +102,6 @@
   </si>
   <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>binary data</t>
   </si>
 </sst>
 </file>
@@ -472,7 +469,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -563,6 +560,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
@@ -571,6 +605,43 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -699,7 +770,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,34 +782,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -823,41 +894,68 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1393,377 +1491,334 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R10"/>
+  <dimension ref="B1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.0857142857143" customWidth="1"/>
-    <col min="2" max="3" width="3.51428571428571" customWidth="1"/>
-    <col min="4" max="4" width="3.5047619047619" customWidth="1"/>
-    <col min="10" max="17" width="4.21904761904762" customWidth="1"/>
-    <col min="18" max="18" width="12.1904761904762" customWidth="1"/>
+    <col min="2" max="2" width="9.69523809523809" customWidth="1"/>
+    <col min="3" max="5" width="2.71428571428571" customWidth="1"/>
+    <col min="6" max="10" width="7.71428571428571" customWidth="1"/>
+    <col min="11" max="18" width="1.71428571428571" customWidth="1"/>
+    <col min="19" max="19" width="14.2761904761905" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:18">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="15.75"/>
+    <row r="2" ht="15.75" spans="2:19">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="2:19">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="1"/>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2">
+        <v>7</v>
+      </c>
+      <c r="K3" s="14"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="1"/>
     </row>
-    <row r="2" ht="15.75" spans="1:18">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="2:19">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19">
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19">
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5">
         <v>2</v>
       </c>
-      <c r="E2" s="1">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19">
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5">
         <v>3</v>
       </c>
-      <c r="F2" s="1">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19">
+      <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5">
         <v>4</v>
       </c>
-      <c r="G2" s="1">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19">
+      <c r="B9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="5">
         <v>5</v>
       </c>
-      <c r="H2" s="1">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>2</v>
-      </c>
-      <c r="M2" s="1">
-        <v>3</v>
-      </c>
-      <c r="N2" s="1">
-        <v>4</v>
-      </c>
-      <c r="O2" s="1">
-        <v>5</v>
-      </c>
-      <c r="P2" s="1">
+    </row>
+    <row r="10" ht="15.75" spans="2:19">
+      <c r="B10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="12">
         <v>6</v>
       </c>
-      <c r="Q2" s="1">
-        <v>7</v>
-      </c>
-      <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="6">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
+      <c r="I10" s="18"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="6">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="6">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="6">
-        <v>6</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-    </row>
-    <row r="10" ht="15.75" spans="1:18">
-      <c r="A10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="10">
-        <v>7</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10" t="s">
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12" t="s">
         <v>8</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J3:Q3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:Q4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:Q5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:Q6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:Q7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:Q8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="J9:Q9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:Q10"/>
+  <mergeCells count="24">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="K3:R3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="K4:R4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="K7:R7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="K9:R9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:R10"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.298611111111111" footer="0.298611111111111"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/docs/bson.xlsx
+++ b/docs/bson.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30630" windowHeight="11940"/>
+    <workbookView windowWidth="23700" windowHeight="15585"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>byte</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>open</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>close</t>
   </si>
 </sst>
 </file>
@@ -469,7 +475,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -564,19 +570,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -605,17 +598,6 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -770,7 +752,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -782,34 +764,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -894,7 +876,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -922,40 +904,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1494,7 +1461,7 @@
   <dimension ref="B1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1563,14 +1530,14 @@
       <c r="J3" s="2">
         <v>7</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="20"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="15"/>
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="2:19">
@@ -1617,7 +1584,7 @@
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="16"/>
+      <c r="I5" s="13"/>
       <c r="J5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1647,12 +1614,12 @@
       <c r="F6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="17"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="13"/>
       <c r="K6" s="5" t="s">
         <v>13</v>
       </c>
@@ -1758,41 +1725,45 @@
       </c>
     </row>
     <row r="10" ht="15.75" spans="2:19">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="10">
         <v>6</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12" t="s">
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="23">
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="K2:R2"/>
     <mergeCell ref="K3:R3"/>
@@ -1815,7 +1786,6 @@
     <mergeCell ref="F9:J9"/>
     <mergeCell ref="K9:R9"/>
     <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:J10"/>
     <mergeCell ref="K10:R10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
